--- a/web/import/contacts-dbs-dimanche.xlsx
+++ b/web/import/contacts-dbs-dimanche.xlsx
@@ -12,10 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil2" sheetId="8" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="9" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="10" r:id="rId3"/>
-    <sheet name="Feuil4" sheetId="11" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="9" r:id="rId1"/>
+    <sheet name="Feuil3" sheetId="10" r:id="rId2"/>
+    <sheet name="Feuil4" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -118,27 +117,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -422,285 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9">
-        <v>696785585</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>657319092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>693482220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>695797241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>679037264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>696373941</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>671619480</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>696200885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>695330037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>696576742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>673363889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>654181319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>678362198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>699881374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>695483751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>655801331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>679842648</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>690135265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>697479913</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>699822482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>673906437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>694537971</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>693464274</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>655483061</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>696422755</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>691485621</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>696583376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>693483112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>659012652</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>656664323</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>697613919</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>691833060</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>678974244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>671636680</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>694394292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>690466577</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>691393719</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>694590078</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>694765352</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>690789347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>675735659</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>696697457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>695387147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>676640829</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>695212835</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>691341328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>690934287</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>675782617</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>677136275</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>657845926</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>694210203</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>699704543</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="A52" sqref="A52:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,22 +423,22 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>691520401</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>697235223</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>693780165</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>694466364</v>
       </c>
     </row>
@@ -736,17 +448,17 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>693380202</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>693902560</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>676386639</v>
       </c>
     </row>
@@ -861,102 +573,102 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>699619764</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>696187983</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>698608082</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>682872432</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>675112450</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>691485621</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>690107527</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>690747390</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>655539428</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>694967110</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>694266433</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>655541434</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>694033257</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>690938358</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>696868274</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>698229853</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>694231120</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>694412303</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>655145339</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+      <c r="A51" s="7">
         <v>694210203</v>
       </c>
     </row>
@@ -965,7 +677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
@@ -976,112 +688,112 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
+      <c r="A1" s="3">
         <v>698721896</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>695135052</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>656730752</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>678735887</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>695163590</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>655620212</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>694228244</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>699445376</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>656735442</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>697221538</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>677329709</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>691861094</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>696912560</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>655172217</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>698925743</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>650043369</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>678974244</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>679842648</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>696570183</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>691762750</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>654093862</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>696845797</v>
       </c>
     </row>
@@ -1221,7 +933,7 @@
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
+      <c r="A50" s="6">
         <v>694210203</v>
       </c>
     </row>
@@ -1230,7 +942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A68"/>
   <sheetViews>
@@ -1291,7 +1003,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="5">
         <v>691293295</v>
       </c>
     </row>
@@ -1381,7 +1093,7 @@
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+      <c r="A29" s="4">
         <v>695815794</v>
       </c>
     </row>
@@ -1416,7 +1128,7 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+      <c r="A36" s="4">
         <v>699439180</v>
       </c>
     </row>
@@ -1491,12 +1203,12 @@
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A51" s="4">
         <v>695330627</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
+      <c r="A52" s="4">
         <v>698731447</v>
       </c>
     </row>
@@ -1506,7 +1218,7 @@
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
+      <c r="A54" s="4">
         <v>655196301</v>
       </c>
     </row>
@@ -1536,47 +1248,47 @@
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+      <c r="A60" s="6">
         <v>696583376</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+      <c r="A61" s="6">
         <v>690241004</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
+      <c r="A62" s="6">
         <v>691280250</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+      <c r="A63" s="6">
         <v>699155393</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
+      <c r="A64" s="6">
         <v>691282879</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+      <c r="A65" s="6">
         <v>650812387</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
+      <c r="A66" s="6">
         <v>696373941</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+      <c r="A67" s="6">
         <v>699212486</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
+      <c r="A68" s="6">
         <v>694210203</v>
       </c>
     </row>

--- a/web/import/contacts-dbs-dimanche.xlsx
+++ b/web/import/contacts-dbs-dimanche.xlsx
@@ -12,9 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="9" r:id="rId1"/>
-    <sheet name="Feuil3" sheetId="10" r:id="rId2"/>
-    <sheet name="Feuil4" sheetId="11" r:id="rId3"/>
+    <sheet name="Feuil3" sheetId="10" r:id="rId1"/>
+    <sheet name="Feuil4" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -65,7 +64,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,19 +94,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -117,17 +103,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -409,266 +393,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:A53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>694996610</v>
+      <c r="A1" s="2">
+        <v>698721896</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>691520401</v>
+        <v>695135052</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>697235223</v>
+        <v>656730752</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>693780165</v>
+        <v>678735887</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>694466364</v>
+        <v>695163590</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>675486828</v>
+      <c r="A6" s="2">
+        <v>655620212</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>693380202</v>
+        <v>694228244</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>693902560</v>
+        <v>699445376</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>676386639</v>
+        <v>656735442</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>695282300</v>
+      <c r="A10" s="2">
+        <v>697221538</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>699106717</v>
+      <c r="A11" s="2">
+        <v>677329709</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>696796295</v>
+      <c r="A12" s="2">
+        <v>691861094</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>696740008</v>
+      <c r="A13" s="2">
+        <v>696912560</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>699291596</v>
+      <c r="A14" s="2">
+        <v>655172217</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>693005572</v>
+      <c r="A15" s="2">
+        <v>698925743</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>699829842</v>
+      <c r="A16" s="2">
+        <v>650043369</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>650812387</v>
+      <c r="A17" s="2">
+        <v>678974244</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>699529532</v>
+      <c r="A18" s="2">
+        <v>679842648</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>657186282</v>
+      <c r="A19" s="2">
+        <v>696570183</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>690241004</v>
+      <c r="A20" s="2">
+        <v>691762750</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>690264575</v>
+      <c r="A21" s="2">
+        <v>654093862</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>655176772</v>
+      <c r="A22" s="2">
+        <v>696845797</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>697246427</v>
+        <v>694948442</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>697570151</v>
+        <v>677573914</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>697947028</v>
+        <v>694775624</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>690229833</v>
+        <v>698910175</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>694483767</v>
+        <v>696459079</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>698078321</v>
+        <v>697168051</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>694072274</v>
+        <v>699811489</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>655597108</v>
+        <v>661494859</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>699000964</v>
+        <v>678401208</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>699619764</v>
+      <c r="A32" s="1">
+        <v>697081012</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>696187983</v>
+      <c r="A33" s="1">
+        <v>676685539</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>698608082</v>
+      <c r="A34" s="1">
+        <v>697821681</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>682872432</v>
+      <c r="A35" s="1">
+        <v>699172631</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>675112450</v>
+      <c r="A36" s="1">
+        <v>670796832</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>691485621</v>
+      <c r="A37" s="1">
+        <v>696872613</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>690107527</v>
+      <c r="A38" s="1">
+        <v>697823762</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>690747390</v>
+      <c r="A39" s="1">
+        <v>694252570</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>655539428</v>
+      <c r="A40" s="1">
+        <v>694390659</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>694967110</v>
+      <c r="A41" s="1">
+        <v>693072912</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>694266433</v>
+      <c r="A42" s="1">
+        <v>696211980</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>655541434</v>
+      <c r="A43" s="1">
+        <v>696994731</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>694033257</v>
+      <c r="A44" s="1">
+        <v>695330627</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>690938358</v>
+      <c r="A45" s="1">
+        <v>699254638</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>696868274</v>
+      <c r="A46" s="1">
+        <v>696813769</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>698229853</v>
+      <c r="A47" s="1">
+        <v>697278330</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>694231120</v>
+      <c r="A48" s="1">
+        <v>694326234</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>694412303</v>
+      <c r="A49" s="1">
+        <v>696228747</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>655145339</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
+      <c r="A50" s="5">
         <v>694210203</v>
       </c>
     </row>
@@ -678,271 +657,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>698721896</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>695135052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>656730752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>678735887</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>695163590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>655620212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>694228244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>699445376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>656735442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>697221538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>677329709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>691861094</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>696912560</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>655172217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>698925743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>650043369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>678974244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>679842648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>696570183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>691762750</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>654093862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>696845797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>694948442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>677573914</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>694775624</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>698910175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>696459079</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>697168051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>699811489</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>661494859</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>678401208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>697081012</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>676685539</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>697821681</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>699172631</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>670796832</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>696872613</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>697823762</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>694252570</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>694390659</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>693072912</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>696211980</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>696994731</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>695330627</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>699254638</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>696813769</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>697278330</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>694326234</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>696228747</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>694210203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A68"/>
   <sheetViews>
@@ -1003,7 +717,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>691293295</v>
       </c>
     </row>
@@ -1093,7 +807,7 @@
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>695815794</v>
       </c>
     </row>
@@ -1128,7 +842,7 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>699439180</v>
       </c>
     </row>
@@ -1203,12 +917,12 @@
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>695330627</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>698731447</v>
       </c>
     </row>
@@ -1218,7 +932,7 @@
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>655196301</v>
       </c>
     </row>
@@ -1248,47 +962,47 @@
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>696583376</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>690241004</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>691280250</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>699155393</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>691282879</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>650812387</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>696373941</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>699212486</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>694210203</v>
       </c>
     </row>

--- a/web/import/contacts-dbs-dimanche.xlsx
+++ b/web/import/contacts-dbs-dimanche.xlsx
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +648,37 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
+        <v>675300272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>690412670</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>693790704</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>670788080</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>679500079</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>694210203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>699704543</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A68"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>

--- a/web/import/contacts-dbs-dimanche.xlsx
+++ b/web/import/contacts-dbs-dimanche.xlsx
@@ -12,8 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil3" sheetId="10" r:id="rId1"/>
-    <sheet name="Feuil4" sheetId="11" r:id="rId2"/>
+    <sheet name="Feuil4" sheetId="11" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -50,18 +49,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -103,10 +96,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -393,305 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:A68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
-        <v>698721896</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>695135052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>656730752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>678735887</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>695163590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>655620212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>694228244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>699445376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>656735442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>697221538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>677329709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>691861094</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>696912560</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>655172217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>698925743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>650043369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>678974244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>679842648</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>696570183</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>691762750</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>654093862</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>696845797</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>694948442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>677573914</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>694775624</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>698910175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>696459079</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>697168051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>699811489</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>661494859</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>678401208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>697081012</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>676685539</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>697821681</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>699172631</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>670796832</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>696872613</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>697823762</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>694252570</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>694390659</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>693072912</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>696211980</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>696994731</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>695330627</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>699254638</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>696813769</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>697278330</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>694326234</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>696228747</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>675300272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>690412670</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>693790704</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>670788080</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>679500079</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>694210203</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>699704543</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A68"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +444,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>691293295</v>
       </c>
     </row>
@@ -837,7 +534,7 @@
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>695815794</v>
       </c>
     </row>
@@ -872,7 +569,7 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>699439180</v>
       </c>
     </row>
@@ -947,12 +644,12 @@
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>695330627</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>698731447</v>
       </c>
     </row>
@@ -962,7 +659,7 @@
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>655196301</v>
       </c>
     </row>
@@ -992,47 +689,47 @@
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="4">
         <v>696583376</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61" s="4">
         <v>690241004</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="A62" s="4">
         <v>691280250</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="A63" s="4">
         <v>699155393</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="4">
         <v>691282879</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="4">
         <v>650812387</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="4">
         <v>696373941</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="4">
         <v>699212486</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="4">
         <v>694210203</v>
       </c>
     </row>
